--- a/Layout Página Cadastro.xlsx
+++ b/Layout Página Cadastro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastre-se (Prestador) " sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Cadastre-se (Arquitetos)'!$A$1:$L$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Cadastre-se (Prestador) '!$A$1:$L$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Como funciona - Saiba Mais'!$A$1:$L$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Como funciona - Saiba Mais'!$A$1:$L$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Entrar!$A$1:$L$56</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>LOGO</t>
   </si>
@@ -41,34 +41,13 @@
     <t>Como funciona</t>
   </si>
   <si>
-    <t>Entrar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastre-se </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redes Sociais </t>
-  </si>
-  <si>
-    <t>Chat (WhatsApp)</t>
-  </si>
-  <si>
     <t>rodapé</t>
   </si>
   <si>
-    <t>Como Funciona: ao clicar descer para a parte "Saiba mais sobre o Arquitentando".</t>
-  </si>
-  <si>
-    <t>Saiba mais sobre o Arquitentando: é direcionado para uma nova página.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cadastre-se: </t>
   </si>
   <si>
     <t>Cadastre-se já e veja todos os projetos que estão disponíves para você!</t>
-  </si>
-  <si>
-    <t>Consiga mais clientes de uma forma mais ágil</t>
   </si>
   <si>
     <t>E-mail:</t>
@@ -94,6 +73,78 @@
   <si>
     <t>Ainda não tem uma conta?
 Cadastre-se agora!</t>
+  </si>
+  <si>
+    <t>Saiba mais sobre o Arquitentando: é direcionado para página "Como Funciona".</t>
+  </si>
+  <si>
+    <t>Como Funciona: é direcionado para outra página.</t>
+  </si>
+  <si>
+    <t>Conquiste mais clientes de uma forma mais ágil</t>
+  </si>
+  <si>
+    <t>Arquitetos e Designers de Interiores</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Faça seu cadastro</t>
+  </si>
+  <si>
+    <t>É simples e rápido!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicite uma cotação </t>
+  </si>
+  <si>
+    <t>mais detalhes do seu projeto!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descreva o que você precisa e insira </t>
+  </si>
+  <si>
+    <t>Escolha a melhor opção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina a cotação mais adequada e </t>
+  </si>
+  <si>
+    <t>negocie direto com o prestador do serviço!</t>
+  </si>
+  <si>
+    <t>Prestadores de Serviços</t>
+  </si>
+  <si>
+    <t>Escolha os projetos</t>
+  </si>
+  <si>
+    <t>Envie sua proposta</t>
+  </si>
+  <si>
+    <t>quais deseja responder com uma cotação!</t>
+  </si>
+  <si>
+    <t>Avalie cada projeto técnico e escolha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envie sua proposta personalizada e </t>
+  </si>
+  <si>
+    <t>negocie direto com o arquieto/designer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitar cotações e oferecer prestação de serviços </t>
+  </si>
+  <si>
+    <t>Essa é a nossa missão! E a gente te ensina aqui como usar o Arquitetando.</t>
+  </si>
+  <si>
+    <t>com o Arquitetando é fácil!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queremos transformar projetos em experiências incríveis. </t>
   </si>
 </sst>
 </file>
@@ -144,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -338,11 +389,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -356,30 +425,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -389,30 +437,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,9 +493,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,38 +828,38 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="30"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="32"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -781,10 +870,10 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="21"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -795,12 +884,12 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="21"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
-        <v>11</v>
+      <c r="A6" s="13"/>
+      <c r="B6" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -811,12 +900,12 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -827,10 +916,10 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="21"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -841,11 +930,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="14"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -856,12 +945,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -872,11 +961,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="14"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -887,10 +976,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -901,10 +990,10 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -915,12 +1004,12 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="21"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -931,10 +1020,10 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -945,10 +1034,10 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -959,10 +1048,10 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="21"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -973,13 +1062,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="14"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -990,10 +1079,10 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1004,10 +1093,10 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="21"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1018,10 +1107,10 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,10 +1121,10 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1046,10 +1135,10 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="21"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1060,10 +1149,10 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="21"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1074,10 +1163,10 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="21"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1088,10 +1177,10 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="21"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1102,10 +1191,10 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="21"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1116,10 +1205,10 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="21"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1130,10 +1219,10 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="21"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1144,10 +1233,10 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="21"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1158,10 +1247,10 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="21"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1172,10 +1261,10 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="21"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1186,10 +1275,10 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="21"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1200,10 +1289,10 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="21"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1214,10 +1303,10 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="21"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1228,10 +1317,10 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="21"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1242,24 +1331,24 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="21"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="21"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1270,10 +1359,10 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="21"/>
+      <c r="L38" s="14"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1284,10 +1373,10 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="21"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1298,10 +1387,10 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="21"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1312,10 +1401,10 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="21"/>
+      <c r="L41" s="14"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1326,10 +1415,10 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="21"/>
+      <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1340,37 +1429,37 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="21"/>
+      <c r="L43" s="14"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="27"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
@@ -1393,7 +1482,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,38 +1492,38 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="30"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="32"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1445,10 +1534,10 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="21"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1459,12 +1548,12 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="21"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
-        <v>16</v>
+      <c r="A6" s="13"/>
+      <c r="B6" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1475,12 +1564,12 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1491,10 +1580,10 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="21"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1505,11 +1594,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="14"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1520,12 +1609,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1536,11 +1625,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="14"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1551,10 +1640,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1565,10 +1654,10 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1579,12 +1668,12 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="21"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1595,10 +1684,10 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1609,10 +1698,10 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1623,10 +1712,10 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="21"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1637,13 +1726,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="14"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1654,10 +1743,10 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1668,10 +1757,10 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="21"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1682,10 +1771,10 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1696,10 +1785,10 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1710,10 +1799,10 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="21"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1724,10 +1813,10 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="21"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1738,10 +1827,10 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="21"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1752,10 +1841,10 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="21"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1766,10 +1855,10 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="21"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1780,10 +1869,10 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="21"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1794,10 +1883,10 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="21"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1808,10 +1897,10 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="21"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1822,10 +1911,10 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="21"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1836,10 +1925,10 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="21"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1850,10 +1939,10 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="21"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1864,10 +1953,10 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="21"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1878,10 +1967,10 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="21"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1892,10 +1981,10 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="21"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1906,24 +1995,24 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="21"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="21"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1934,10 +2023,10 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="21"/>
+      <c r="L38" s="14"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1948,10 +2037,10 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="21"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1962,10 +2051,10 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="21"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1976,10 +2065,10 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="21"/>
+      <c r="L41" s="14"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1990,10 +2079,10 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="21"/>
+      <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2004,37 +2093,37 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="21"/>
+      <c r="L43" s="14"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="27"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
@@ -2057,7 +2146,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,38 +2156,38 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="30"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="32"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2109,13 +2198,13 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="21"/>
+      <c r="L4" s="14"/>
       <c r="N4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2126,292 +2215,292 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="21"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
+      <c r="A6" s="13"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="21"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="20"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="14"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="21"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="14"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="21"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="21"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="21"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="14"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="21"/>
+      <c r="A18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="21"/>
+      <c r="A19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="21"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="20"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
+      <c r="C22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="21"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="21"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="21"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="21"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2422,10 +2511,10 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="21"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2436,10 +2525,10 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="21"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2450,10 +2539,10 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="21"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2464,10 +2553,10 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="21"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2478,10 +2567,10 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="21"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2492,10 +2581,10 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="21"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2506,10 +2595,10 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="21"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2520,10 +2609,10 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="21"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2534,10 +2623,10 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="21"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2548,10 +2637,10 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="21"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2562,24 +2651,24 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="21"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="21"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2590,10 +2679,10 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="21"/>
+      <c r="L38" s="14"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2604,10 +2693,10 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="21"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2618,10 +2707,10 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="21"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2632,10 +2721,10 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="21"/>
+      <c r="L41" s="14"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2646,10 +2735,10 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="21"/>
+      <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2660,50 +2749,50 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="21"/>
+      <c r="L43" s="14"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="27"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D18:H19"/>
     <mergeCell ref="C22:I24"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="G2:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D18:H19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
@@ -2712,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,650 +2814,676 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="19"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="30"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="32"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="54"/>
       <c r="N4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="21"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="50"/>
+      <c r="B6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="54"/>
       <c r="N6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="21"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="50"/>
+      <c r="B7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="21"/>
-      <c r="N8" s="1"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="21"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="21"/>
-      <c r="N10" s="1"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="21"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="21"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="21"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="54"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="21"/>
-      <c r="O17" s="1"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="21"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="1"/>
+      <c r="L21" s="14"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="21"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="21"/>
+      <c r="L23" s="14"/>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="1"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="21"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="21"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="21"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="L31" s="14"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="21"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="21"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="21"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="1"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="13"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="21"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="21"/>
-    </row>
-    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="14"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="49" t="s">
+        <v>29</v>
+      </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="21"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="13"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="21"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="13"/>
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="27"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="49" t="s">
+        <v>32</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="21"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="21"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="21"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:K10"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="G2:H3"/>
